--- a/results/Cartpole/Improved/Comparison.xlsx
+++ b/results/Cartpole/Improved/Comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17D282-4020-4F4D-A2F6-480A3C7A74D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B3A39-2480-4868-B722-3A81099699CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5261,6 +5261,1711 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dueling DDQN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="30"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$551</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="550"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7EA1-4885-82EB-9F4E1561F4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5288,12 +6993,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="arrow"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5322,24 +7025,21 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="50"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="770526552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5352,7 +7052,10 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6019,13 +7722,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>395286</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6318,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6351,6 +8054,9 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -6362,6 +8068,9 @@
       <c r="C3">
         <v>18</v>
       </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6373,6 +8082,9 @@
       <c r="C4">
         <v>25</v>
       </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6384,6 +8096,9 @@
       <c r="C5">
         <v>16</v>
       </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -6395,6 +8110,9 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -6406,6 +8124,9 @@
       <c r="C7">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6417,6 +8138,9 @@
       <c r="C8">
         <v>24</v>
       </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -6427,6 +8151,9 @@
       </c>
       <c r="C9">
         <v>11</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6439,6 +8166,9 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6450,6 +8180,9 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6461,6 +8194,9 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6472,6 +8208,9 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6483,6 +8222,9 @@
       <c r="C14">
         <v>16</v>
       </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6494,6 +8236,9 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6505,8 +8250,11 @@
       <c r="C16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -6516,8 +8264,11 @@
       <c r="C17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -6527,8 +8278,11 @@
       <c r="C18">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6538,8 +8292,11 @@
       <c r="C19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -6549,8 +8306,11 @@
       <c r="C20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6560,8 +8320,11 @@
       <c r="C21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6571,8 +8334,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -6582,8 +8348,11 @@
       <c r="C23">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -6593,8 +8362,11 @@
       <c r="C24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -6604,8 +8376,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -6615,8 +8390,11 @@
       <c r="C26">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -6626,8 +8404,11 @@
       <c r="C27">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -6637,8 +8418,11 @@
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34</v>
       </c>
@@ -6648,8 +8432,11 @@
       <c r="C29">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -6659,8 +8446,11 @@
       <c r="C30">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
@@ -6670,8 +8460,11 @@
       <c r="C31">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -6681,8 +8474,11 @@
       <c r="C32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -6692,8 +8488,11 @@
       <c r="C33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -6703,8 +8502,11 @@
       <c r="C34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -6714,8 +8516,11 @@
       <c r="C35">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6725,8 +8530,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23</v>
       </c>
@@ -6736,8 +8544,11 @@
       <c r="C37">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -6747,8 +8558,11 @@
       <c r="C38">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -6758,8 +8572,11 @@
       <c r="C39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6769,8 +8586,11 @@
       <c r="C40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6780,8 +8600,11 @@
       <c r="C41">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -6791,8 +8614,11 @@
       <c r="C42">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -6802,8 +8628,11 @@
       <c r="C43">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>28</v>
       </c>
@@ -6813,8 +8642,11 @@
       <c r="C44">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -6824,8 +8656,11 @@
       <c r="C45">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
@@ -6835,8 +8670,11 @@
       <c r="C46">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>24</v>
       </c>
@@ -6846,8 +8684,11 @@
       <c r="C47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13</v>
       </c>
@@ -6857,8 +8698,11 @@
       <c r="C48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -6868,8 +8712,11 @@
       <c r="C49">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21</v>
       </c>
@@ -6879,8 +8726,11 @@
       <c r="C50">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19</v>
       </c>
@@ -6890,8 +8740,11 @@
       <c r="C51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -6901,8 +8754,11 @@
       <c r="C52">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
@@ -6912,8 +8768,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -6923,8 +8782,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>32</v>
       </c>
@@ -6934,8 +8796,11 @@
       <c r="C55">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -6945,8 +8810,11 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -6956,8 +8824,11 @@
       <c r="C57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -6967,8 +8838,11 @@
       <c r="C58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14</v>
       </c>
@@ -6978,8 +8852,11 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -6989,8 +8866,11 @@
       <c r="C60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
@@ -7000,8 +8880,11 @@
       <c r="C61">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -7011,8 +8894,11 @@
       <c r="C62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -7022,8 +8908,11 @@
       <c r="C63">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -7033,8 +8922,11 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -7044,8 +8936,11 @@
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -7055,8 +8950,11 @@
       <c r="C66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13</v>
       </c>
@@ -7066,8 +8964,11 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -7077,8 +8978,11 @@
       <c r="C68">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -7088,8 +8992,11 @@
       <c r="C69">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>36</v>
       </c>
@@ -7099,8 +9006,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
@@ -7110,8 +9020,11 @@
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19</v>
       </c>
@@ -7121,8 +9034,11 @@
       <c r="C72">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>28</v>
       </c>
@@ -7132,8 +9048,11 @@
       <c r="C73">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -7143,8 +9062,11 @@
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -7154,8 +9076,11 @@
       <c r="C75">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>43</v>
       </c>
@@ -7165,8 +9090,11 @@
       <c r="C76">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
@@ -7176,8 +9104,11 @@
       <c r="C77">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>28</v>
       </c>
@@ -7187,8 +9118,11 @@
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13</v>
       </c>
@@ -7198,8 +9132,11 @@
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>25</v>
       </c>
@@ -7209,8 +9146,11 @@
       <c r="C80">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>21</v>
       </c>
@@ -7220,8 +9160,11 @@
       <c r="C81">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -7231,8 +9174,11 @@
       <c r="C82">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -7242,8 +9188,11 @@
       <c r="C83">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -7253,8 +9202,11 @@
       <c r="C84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -7264,8 +9216,11 @@
       <c r="C85">
         <v>51</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>34</v>
       </c>
@@ -7275,8 +9230,11 @@
       <c r="C86">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -7286,8 +9244,11 @@
       <c r="C87">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7297,8 +9258,11 @@
       <c r="C88">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -7308,8 +9272,11 @@
       <c r="C89">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
@@ -7319,8 +9286,11 @@
       <c r="C90">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
@@ -7330,8 +9300,11 @@
       <c r="C91">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12</v>
       </c>
@@ -7341,8 +9314,11 @@
       <c r="C92">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -7352,8 +9328,11 @@
       <c r="C93">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>38</v>
       </c>
@@ -7363,8 +9342,11 @@
       <c r="C94">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -7374,8 +9356,11 @@
       <c r="C95">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>40</v>
       </c>
@@ -7385,8 +9370,11 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -7396,8 +9384,11 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -7407,8 +9398,11 @@
       <c r="C98">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12</v>
       </c>
@@ -7418,8 +9412,11 @@
       <c r="C99">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
@@ -7429,8 +9426,11 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -7440,8 +9440,11 @@
       <c r="C101">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>32</v>
       </c>
@@ -7451,8 +9454,11 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -7462,8 +9468,11 @@
       <c r="C103">
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10</v>
       </c>
@@ -7473,8 +9482,11 @@
       <c r="C104">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10</v>
       </c>
@@ -7484,8 +9496,11 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21</v>
       </c>
@@ -7495,8 +9510,11 @@
       <c r="C106">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
@@ -7506,8 +9524,11 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -7517,8 +9538,11 @@
       <c r="C108">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>19</v>
       </c>
@@ -7528,8 +9552,11 @@
       <c r="C109">
         <v>68</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9</v>
       </c>
@@ -7539,8 +9566,11 @@
       <c r="C110">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>17</v>
       </c>
@@ -7550,8 +9580,11 @@
       <c r="C111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
@@ -7561,8 +9594,11 @@
       <c r="C112">
         <v>19</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>25</v>
       </c>
@@ -7572,8 +9608,11 @@
       <c r="C113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -7583,8 +9622,11 @@
       <c r="C114">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>16</v>
       </c>
@@ -7594,8 +9636,11 @@
       <c r="C115">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>36</v>
       </c>
@@ -7605,8 +9650,11 @@
       <c r="C116">
         <v>23</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18</v>
       </c>
@@ -7616,8 +9664,11 @@
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -7627,8 +9678,11 @@
       <c r="C118">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13</v>
       </c>
@@ -7638,8 +9692,11 @@
       <c r="C119">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20</v>
       </c>
@@ -7649,8 +9706,11 @@
       <c r="C120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>34</v>
       </c>
@@ -7660,8 +9720,11 @@
       <c r="C121">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -7671,8 +9734,11 @@
       <c r="C122">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>35</v>
       </c>
@@ -7682,8 +9748,11 @@
       <c r="C123">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>32</v>
       </c>
@@ -7693,8 +9762,11 @@
       <c r="C124">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>25</v>
       </c>
@@ -7704,8 +9776,11 @@
       <c r="C125">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>14</v>
       </c>
@@ -7715,8 +9790,11 @@
       <c r="C126">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -7726,8 +9804,11 @@
       <c r="C127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -7737,8 +9818,11 @@
       <c r="C128">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>31</v>
       </c>
@@ -7748,8 +9832,11 @@
       <c r="C129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>33</v>
       </c>
@@ -7759,8 +9846,11 @@
       <c r="C130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>25</v>
       </c>
@@ -7770,8 +9860,11 @@
       <c r="C131">
         <v>43</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>31</v>
       </c>
@@ -7781,8 +9874,11 @@
       <c r="C132">
         <v>34</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15</v>
       </c>
@@ -7792,8 +9888,11 @@
       <c r="C133">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18</v>
       </c>
@@ -7803,8 +9902,11 @@
       <c r="C134">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20</v>
       </c>
@@ -7814,8 +9916,11 @@
       <c r="C135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -7825,8 +9930,11 @@
       <c r="C136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>13</v>
       </c>
@@ -7836,8 +9944,11 @@
       <c r="C137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -7847,8 +9958,11 @@
       <c r="C138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15</v>
       </c>
@@ -7858,8 +9972,11 @@
       <c r="C139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -7869,8 +9986,11 @@
       <c r="C140">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -7880,8 +10000,11 @@
       <c r="C141">
         <v>35</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13</v>
       </c>
@@ -7891,8 +10014,11 @@
       <c r="C142">
         <v>37</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>12</v>
       </c>
@@ -7902,8 +10028,11 @@
       <c r="C143">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>28</v>
       </c>
@@ -7913,8 +10042,11 @@
       <c r="C144">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10</v>
       </c>
@@ -7924,8 +10056,11 @@
       <c r="C145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>13</v>
       </c>
@@ -7935,8 +10070,11 @@
       <c r="C146">
         <v>21</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>11</v>
       </c>
@@ -7946,8 +10084,11 @@
       <c r="C147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>26</v>
       </c>
@@ -7957,8 +10098,11 @@
       <c r="C148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -7968,8 +10112,11 @@
       <c r="C149">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0</v>
       </c>
@@ -7979,8 +10126,11 @@
       <c r="C150">
         <v>32</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>13</v>
       </c>
@@ -7990,8 +10140,11 @@
       <c r="C151">
         <v>41</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>13</v>
       </c>
@@ -8001,8 +10154,11 @@
       <c r="C152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -8012,8 +10168,11 @@
       <c r="C153">
         <v>34</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16</v>
       </c>
@@ -8023,8 +10182,11 @@
       <c r="C154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -8034,8 +10196,11 @@
       <c r="C155">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -8045,8 +10210,11 @@
       <c r="C156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -8056,8 +10224,11 @@
       <c r="C157">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -8067,8 +10238,11 @@
       <c r="C158">
         <v>26</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>55</v>
       </c>
@@ -8078,8 +10252,11 @@
       <c r="C159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>59</v>
       </c>
@@ -8089,8 +10266,11 @@
       <c r="C160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>12</v>
       </c>
@@ -8100,8 +10280,11 @@
       <c r="C161">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>26</v>
       </c>
@@ -8111,8 +10294,11 @@
       <c r="C162">
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>20</v>
       </c>
@@ -8122,8 +10308,11 @@
       <c r="C163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -8133,8 +10322,11 @@
       <c r="C164">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -8144,8 +10336,11 @@
       <c r="C165">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>16</v>
       </c>
@@ -8155,8 +10350,11 @@
       <c r="C166">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18</v>
       </c>
@@ -8166,8 +10364,11 @@
       <c r="C167">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>12</v>
       </c>
@@ -8177,8 +10378,11 @@
       <c r="C168">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -8188,8 +10392,11 @@
       <c r="C169">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>17</v>
       </c>
@@ -8199,8 +10406,11 @@
       <c r="C170">
         <v>21</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9</v>
       </c>
@@ -8210,8 +10420,11 @@
       <c r="C171">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -8221,8 +10434,11 @@
       <c r="C172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0</v>
       </c>
@@ -8232,8 +10448,11 @@
       <c r="C173">
         <v>10</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>35</v>
       </c>
@@ -8243,8 +10462,11 @@
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>23</v>
       </c>
@@ -8254,8 +10476,11 @@
       <c r="C175">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>19</v>
       </c>
@@ -8265,8 +10490,11 @@
       <c r="C176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -8276,8 +10504,11 @@
       <c r="C177">
         <v>30</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14</v>
       </c>
@@ -8287,8 +10518,11 @@
       <c r="C178">
         <v>21</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23</v>
       </c>
@@ -8298,8 +10532,11 @@
       <c r="C179">
         <v>36</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>61</v>
       </c>
@@ -8309,8 +10546,11 @@
       <c r="C180">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>13</v>
       </c>
@@ -8320,8 +10560,11 @@
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>43</v>
       </c>
@@ -8331,8 +10574,11 @@
       <c r="C182">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>15</v>
       </c>
@@ -8342,8 +10588,11 @@
       <c r="C183">
         <v>17</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -8353,8 +10602,11 @@
       <c r="C184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20</v>
       </c>
@@ -8364,8 +10616,11 @@
       <c r="C185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>26</v>
       </c>
@@ -8375,8 +10630,11 @@
       <c r="C186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -8386,8 +10644,11 @@
       <c r="C187">
         <v>12</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>28</v>
       </c>
@@ -8397,8 +10658,11 @@
       <c r="C188">
         <v>12</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>11</v>
       </c>
@@ -8408,8 +10672,11 @@
       <c r="C189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18</v>
       </c>
@@ -8419,8 +10686,11 @@
       <c r="C190">
         <v>49</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11</v>
       </c>
@@ -8430,8 +10700,11 @@
       <c r="C191">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -8441,8 +10714,11 @@
       <c r="C192">
         <v>15</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -8452,8 +10728,11 @@
       <c r="C193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -8463,8 +10742,11 @@
       <c r="C194">
         <v>27</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>21</v>
       </c>
@@ -8474,8 +10756,11 @@
       <c r="C195">
         <v>10</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>12</v>
       </c>
@@ -8485,8 +10770,11 @@
       <c r="C196">
         <v>23</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0</v>
       </c>
@@ -8496,8 +10784,11 @@
       <c r="C197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -8507,8 +10798,11 @@
       <c r="C198">
         <v>35</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11</v>
       </c>
@@ -8518,8 +10812,11 @@
       <c r="C199">
         <v>21</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>49</v>
       </c>
@@ -8529,8 +10826,11 @@
       <c r="C200">
         <v>12</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -8540,8 +10840,11 @@
       <c r="C201">
         <v>31</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>46</v>
       </c>
@@ -8551,8 +10854,11 @@
       <c r="C202">
         <v>12</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -8562,8 +10868,11 @@
       <c r="C203">
         <v>27</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>14</v>
       </c>
@@ -8573,8 +10882,11 @@
       <c r="C204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>28</v>
       </c>
@@ -8584,8 +10896,11 @@
       <c r="C205">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9</v>
       </c>
@@ -8595,8 +10910,11 @@
       <c r="C206">
         <v>14</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>17</v>
       </c>
@@ -8606,8 +10924,11 @@
       <c r="C207">
         <v>39</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>30</v>
       </c>
@@ -8617,8 +10938,11 @@
       <c r="C208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>16</v>
       </c>
@@ -8628,8 +10952,11 @@
       <c r="C209">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11</v>
       </c>
@@ -8639,8 +10966,11 @@
       <c r="C210">
         <v>10</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>12</v>
       </c>
@@ -8650,8 +10980,11 @@
       <c r="C211">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -8661,8 +10994,11 @@
       <c r="C212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>15</v>
       </c>
@@ -8672,8 +11008,11 @@
       <c r="C213">
         <v>23</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>70</v>
       </c>
@@ -8683,8 +11022,11 @@
       <c r="C214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -8694,8 +11036,11 @@
       <c r="C215">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -8705,8 +11050,11 @@
       <c r="C216">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
@@ -8716,8 +11064,11 @@
       <c r="C217">
         <v>11</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>32</v>
       </c>
@@ -8727,8 +11078,11 @@
       <c r="C218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -8738,8 +11092,11 @@
       <c r="C219">
         <v>9</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -8749,8 +11106,11 @@
       <c r="C220">
         <v>14</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20</v>
       </c>
@@ -8760,8 +11120,11 @@
       <c r="C221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>46</v>
       </c>
@@ -8771,8 +11134,11 @@
       <c r="C222">
         <v>39</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14</v>
       </c>
@@ -8782,8 +11148,11 @@
       <c r="C223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>18</v>
       </c>
@@ -8793,8 +11162,11 @@
       <c r="C224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>22</v>
       </c>
@@ -8804,8 +11176,11 @@
       <c r="C225">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>15</v>
       </c>
@@ -8815,8 +11190,11 @@
       <c r="C226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>17</v>
       </c>
@@ -8826,8 +11204,11 @@
       <c r="C227">
         <v>14</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>17</v>
       </c>
@@ -8837,8 +11218,11 @@
       <c r="C228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>40</v>
       </c>
@@ -8848,8 +11232,11 @@
       <c r="C229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>16</v>
       </c>
@@ -8859,8 +11246,11 @@
       <c r="C230">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>7</v>
       </c>
@@ -8870,8 +11260,11 @@
       <c r="C231">
         <v>21</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -8881,8 +11274,11 @@
       <c r="C232">
         <v>21</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>39</v>
       </c>
@@ -8892,8 +11288,11 @@
       <c r="C233">
         <v>25</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>17</v>
       </c>
@@ -8903,8 +11302,11 @@
       <c r="C234">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0</v>
       </c>
@@ -8914,8 +11316,11 @@
       <c r="C235">
         <v>26</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>18</v>
       </c>
@@ -8925,8 +11330,11 @@
       <c r="C236">
         <v>19</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>40</v>
       </c>
@@ -8936,8 +11344,11 @@
       <c r="C237">
         <v>16</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0</v>
       </c>
@@ -8947,8 +11358,11 @@
       <c r="C238">
         <v>11</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>9</v>
       </c>
@@ -8958,8 +11372,11 @@
       <c r="C239">
         <v>31</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>25</v>
       </c>
@@ -8969,8 +11386,11 @@
       <c r="C240">
         <v>15</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>16</v>
       </c>
@@ -8980,8 +11400,11 @@
       <c r="C241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>19</v>
       </c>
@@ -8991,8 +11414,11 @@
       <c r="C242">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14</v>
       </c>
@@ -9002,8 +11428,11 @@
       <c r="C243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>36</v>
       </c>
@@ -9013,8 +11442,11 @@
       <c r="C244">
         <v>12</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>12</v>
       </c>
@@ -9024,8 +11456,11 @@
       <c r="C245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>30</v>
       </c>
@@ -9035,8 +11470,11 @@
       <c r="C246">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>58</v>
       </c>
@@ -9046,8 +11484,11 @@
       <c r="C247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>35</v>
       </c>
@@ -9057,8 +11498,11 @@
       <c r="C248">
         <v>20</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>11</v>
       </c>
@@ -9068,8 +11512,11 @@
       <c r="C249">
         <v>30</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>22</v>
       </c>
@@ -9079,8 +11526,11 @@
       <c r="C250">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>14</v>
       </c>
@@ -9090,8 +11540,11 @@
       <c r="C251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>23</v>
       </c>
@@ -9101,8 +11554,11 @@
       <c r="C252">
         <v>12</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>33</v>
       </c>
@@ -9112,8 +11568,11 @@
       <c r="C253">
         <v>10</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>13</v>
       </c>
@@ -9123,8 +11582,11 @@
       <c r="C254">
         <v>22</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>24</v>
       </c>
@@ -9134,8 +11596,11 @@
       <c r="C255">
         <v>18</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0</v>
       </c>
@@ -9145,8 +11610,11 @@
       <c r="C256">
         <v>24</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>14</v>
       </c>
@@ -9156,8 +11624,11 @@
       <c r="C257">
         <v>13</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>35</v>
       </c>
@@ -9167,8 +11638,11 @@
       <c r="C258">
         <v>9</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>31</v>
       </c>
@@ -9178,8 +11652,11 @@
       <c r="C259">
         <v>15</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11</v>
       </c>
@@ -9189,8 +11666,11 @@
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>34</v>
       </c>
@@ -9200,8 +11680,11 @@
       <c r="C261">
         <v>21</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>21</v>
       </c>
@@ -9211,8 +11694,11 @@
       <c r="C262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0</v>
       </c>
@@ -9222,8 +11708,11 @@
       <c r="C263">
         <v>41</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0</v>
       </c>
@@ -9233,8 +11722,11 @@
       <c r="C264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0</v>
       </c>
@@ -9244,8 +11736,11 @@
       <c r="C265">
         <v>29</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>36</v>
       </c>
@@ -9255,8 +11750,11 @@
       <c r="C266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>28</v>
       </c>
@@ -9266,8 +11764,11 @@
       <c r="C267">
         <v>28</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>23</v>
       </c>
@@ -9277,8 +11778,11 @@
       <c r="C268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0</v>
       </c>
@@ -9288,8 +11792,11 @@
       <c r="C269">
         <v>8</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -9299,8 +11806,11 @@
       <c r="C270">
         <v>11</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0</v>
       </c>
@@ -9310,8 +11820,11 @@
       <c r="C271">
         <v>18</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>21</v>
       </c>
@@ -9321,8 +11834,11 @@
       <c r="C272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>19</v>
       </c>
@@ -9332,8 +11848,11 @@
       <c r="C273">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0</v>
       </c>
@@ -9343,8 +11862,11 @@
       <c r="C274">
         <v>20</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>12</v>
       </c>
@@ -9354,8 +11876,11 @@
       <c r="C275">
         <v>12</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>10</v>
       </c>
@@ -9365,8 +11890,11 @@
       <c r="C276">
         <v>13</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>35</v>
       </c>
@@ -9376,8 +11904,11 @@
       <c r="C277">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>11</v>
       </c>
@@ -9387,8 +11918,11 @@
       <c r="C278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>16</v>
       </c>
@@ -9398,8 +11932,11 @@
       <c r="C279">
         <v>19</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>19</v>
       </c>
@@ -9409,8 +11946,11 @@
       <c r="C280">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0</v>
       </c>
@@ -9420,8 +11960,11 @@
       <c r="C281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>19</v>
       </c>
@@ -9431,8 +11974,11 @@
       <c r="C282">
         <v>9</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>7</v>
       </c>
@@ -9442,8 +11988,11 @@
       <c r="C283">
         <v>16</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>40</v>
       </c>
@@ -9453,8 +12002,11 @@
       <c r="C284">
         <v>13</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>19</v>
       </c>
@@ -9464,8 +12016,11 @@
       <c r="C285">
         <v>8</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>17</v>
       </c>
@@ -9475,8 +12030,11 @@
       <c r="C286">
         <v>20</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>11</v>
       </c>
@@ -9486,8 +12044,11 @@
       <c r="C287">
         <v>19</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0</v>
       </c>
@@ -9497,8 +12058,11 @@
       <c r="C288">
         <v>12</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16</v>
       </c>
@@ -9508,8 +12072,11 @@
       <c r="C289">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>16</v>
       </c>
@@ -9519,8 +12086,11 @@
       <c r="C290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16</v>
       </c>
@@ -9530,8 +12100,11 @@
       <c r="C291">
         <v>19</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>36</v>
       </c>
@@ -9541,8 +12114,11 @@
       <c r="C292">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>23</v>
       </c>
@@ -9552,8 +12128,11 @@
       <c r="C293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>35</v>
       </c>
@@ -9563,8 +12142,11 @@
       <c r="C294">
         <v>15</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>82</v>
       </c>
@@ -9574,8 +12156,11 @@
       <c r="C295">
         <v>8</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0</v>
       </c>
@@ -9585,8 +12170,11 @@
       <c r="C296">
         <v>19</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>24</v>
       </c>
@@ -9596,8 +12184,11 @@
       <c r="C297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0</v>
       </c>
@@ -9607,8 +12198,11 @@
       <c r="C298">
         <v>18</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>9</v>
       </c>
@@ -9618,8 +12212,11 @@
       <c r="C299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>14</v>
       </c>
@@ -9629,8 +12226,11 @@
       <c r="C300">
         <v>49</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>12</v>
       </c>
@@ -9640,8 +12240,11 @@
       <c r="C301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>19</v>
       </c>
@@ -9651,8 +12254,11 @@
       <c r="C302">
         <v>14</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>28</v>
       </c>
@@ -9662,8 +12268,11 @@
       <c r="C303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>27</v>
       </c>
@@ -9673,8 +12282,11 @@
       <c r="C304">
         <v>14</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>0</v>
       </c>
@@ -9684,8 +12296,11 @@
       <c r="C305">
         <v>16</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>0</v>
       </c>
@@ -9695,8 +12310,11 @@
       <c r="C306">
         <v>15</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>17</v>
       </c>
@@ -9706,8 +12324,11 @@
       <c r="C307">
         <v>14</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>19</v>
       </c>
@@ -9717,8 +12338,11 @@
       <c r="C308">
         <v>12</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>13</v>
       </c>
@@ -9728,8 +12352,11 @@
       <c r="C309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>11</v>
       </c>
@@ -9739,8 +12366,11 @@
       <c r="C310">
         <v>17</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>16</v>
       </c>
@@ -9750,8 +12380,11 @@
       <c r="C311">
         <v>35</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>26</v>
       </c>
@@ -9761,8 +12394,11 @@
       <c r="C312">
         <v>25</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>28</v>
       </c>
@@ -9772,8 +12408,11 @@
       <c r="C313">
         <v>15</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -9783,8 +12422,11 @@
       <c r="C314">
         <v>28</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0</v>
       </c>
@@ -9794,8 +12436,11 @@
       <c r="C315">
         <v>13</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>13</v>
       </c>
@@ -9805,8 +12450,11 @@
       <c r="C316">
         <v>21</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>18</v>
       </c>
@@ -9816,8 +12464,11 @@
       <c r="C317">
         <v>13</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>0</v>
       </c>
@@ -9827,8 +12478,11 @@
       <c r="C318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>20</v>
       </c>
@@ -9838,8 +12492,11 @@
       <c r="C319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>0</v>
       </c>
@@ -9849,8 +12506,11 @@
       <c r="C320">
         <v>31</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>15</v>
       </c>
@@ -9860,8 +12520,11 @@
       <c r="C321">
         <v>18</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>15</v>
       </c>
@@ -9871,8 +12534,11 @@
       <c r="C322">
         <v>24</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>0</v>
       </c>
@@ -9882,8 +12548,11 @@
       <c r="C323">
         <v>34</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>18</v>
       </c>
@@ -9893,8 +12562,11 @@
       <c r="C324">
         <v>14</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>21</v>
       </c>
@@ -9904,8 +12576,11 @@
       <c r="C325">
         <v>38</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>14</v>
       </c>
@@ -9915,8 +12590,11 @@
       <c r="C326">
         <v>8</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>11</v>
       </c>
@@ -9926,8 +12604,11 @@
       <c r="C327">
         <v>23</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>12</v>
       </c>
@@ -9937,8 +12618,11 @@
       <c r="C328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>12</v>
       </c>
@@ -9948,8 +12632,11 @@
       <c r="C329">
         <v>7</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0</v>
       </c>
@@ -9959,8 +12646,11 @@
       <c r="C330">
         <v>14</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>0</v>
       </c>
@@ -9970,8 +12660,11 @@
       <c r="C331">
         <v>34</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>30</v>
       </c>
@@ -9981,8 +12674,11 @@
       <c r="C332">
         <v>15</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>20</v>
       </c>
@@ -9992,8 +12688,11 @@
       <c r="C333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>19</v>
       </c>
@@ -10003,8 +12702,11 @@
       <c r="C334">
         <v>23</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>13</v>
       </c>
@@ -10014,8 +12716,11 @@
       <c r="C335">
         <v>34</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>0</v>
       </c>
@@ -10025,8 +12730,11 @@
       <c r="C336">
         <v>7</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>11</v>
       </c>
@@ -10036,8 +12744,11 @@
       <c r="C337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>40</v>
       </c>
@@ -10047,8 +12758,11 @@
       <c r="C338">
         <v>29</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>11</v>
       </c>
@@ -10058,8 +12772,11 @@
       <c r="C339">
         <v>30</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>14</v>
       </c>
@@ -10069,8 +12786,11 @@
       <c r="C340">
         <v>24</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>0</v>
       </c>
@@ -10080,8 +12800,11 @@
       <c r="C341">
         <v>14</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0</v>
       </c>
@@ -10091,8 +12814,11 @@
       <c r="C342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>11</v>
       </c>
@@ -10102,8 +12828,11 @@
       <c r="C343">
         <v>28</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>11</v>
       </c>
@@ -10113,8 +12842,11 @@
       <c r="C344">
         <v>21</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>22</v>
       </c>
@@ -10124,8 +12856,11 @@
       <c r="C345">
         <v>25</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>13</v>
       </c>
@@ -10135,8 +12870,11 @@
       <c r="C346">
         <v>25</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>30</v>
       </c>
@@ -10146,8 +12884,11 @@
       <c r="C347">
         <v>13</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>10</v>
       </c>
@@ -10157,8 +12898,11 @@
       <c r="C348">
         <v>26</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>20</v>
       </c>
@@ -10168,8 +12912,11 @@
       <c r="C349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>18</v>
       </c>
@@ -10179,8 +12926,11 @@
       <c r="C350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>53</v>
       </c>
@@ -10190,8 +12940,11 @@
       <c r="C351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>50</v>
       </c>
@@ -10201,8 +12954,11 @@
       <c r="C352">
         <v>117</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>148</v>
       </c>
@@ -10212,8 +12968,11 @@
       <c r="C353">
         <v>29</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>25</v>
       </c>
@@ -10223,8 +12982,11 @@
       <c r="C354">
         <v>51</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>24</v>
       </c>
@@ -10234,8 +12996,11 @@
       <c r="C355">
         <v>37</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>14</v>
       </c>
@@ -10245,8 +13010,11 @@
       <c r="C356">
         <v>115</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>20</v>
       </c>
@@ -10256,8 +13024,11 @@
       <c r="C357">
         <v>97</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>19</v>
       </c>
@@ -10267,8 +13038,11 @@
       <c r="C358">
         <v>97</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>20</v>
       </c>
@@ -10278,8 +13052,11 @@
       <c r="C359">
         <v>115</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>21</v>
       </c>
@@ -10289,8 +13066,11 @@
       <c r="C360">
         <v>144</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>20</v>
       </c>
@@ -10300,8 +13080,11 @@
       <c r="C361">
         <v>110</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>17</v>
       </c>
@@ -10311,8 +13094,11 @@
       <c r="C362">
         <v>78</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>33</v>
       </c>
@@ -10322,8 +13108,11 @@
       <c r="C363">
         <v>78</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>29</v>
       </c>
@@ -10333,8 +13122,11 @@
       <c r="C364">
         <v>205</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>25</v>
       </c>
@@ -10344,8 +13136,11 @@
       <c r="C365">
         <v>62</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>75</v>
       </c>
@@ -10355,8 +13150,11 @@
       <c r="C366">
         <v>81</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>29</v>
       </c>
@@ -10366,8 +13164,11 @@
       <c r="C367">
         <v>102</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>56</v>
       </c>
@@ -10377,8 +13178,11 @@
       <c r="C368">
         <v>289</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>64</v>
       </c>
@@ -10388,8 +13192,11 @@
       <c r="C369">
         <v>211</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>44</v>
       </c>
@@ -10399,8 +13206,11 @@
       <c r="C370">
         <v>150</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>44</v>
       </c>
@@ -10410,8 +13220,11 @@
       <c r="C371">
         <v>156</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>50</v>
       </c>
@@ -10421,8 +13234,11 @@
       <c r="C372">
         <v>273</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>123</v>
       </c>
@@ -10432,8 +13248,11 @@
       <c r="C373">
         <v>95</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>31</v>
       </c>
@@ -10443,8 +13262,11 @@
       <c r="C374">
         <v>85</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>146</v>
       </c>
@@ -10454,8 +13276,11 @@
       <c r="C375">
         <v>145</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>50</v>
       </c>
@@ -10465,8 +13290,11 @@
       <c r="C376">
         <v>217</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>18</v>
       </c>
@@ -10476,8 +13304,11 @@
       <c r="C377">
         <v>150</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>16</v>
       </c>
@@ -10487,8 +13318,11 @@
       <c r="C378">
         <v>108</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>23</v>
       </c>
@@ -10498,8 +13332,11 @@
       <c r="C379">
         <v>341</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>154</v>
       </c>
@@ -10509,8 +13346,11 @@
       <c r="C380">
         <v>53</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>141</v>
       </c>
@@ -10520,8 +13360,11 @@
       <c r="C381">
         <v>175</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>30</v>
       </c>
@@ -10531,8 +13374,11 @@
       <c r="C382">
         <v>331</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>144</v>
       </c>
@@ -10542,8 +13388,11 @@
       <c r="C383">
         <v>206</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>23</v>
       </c>
@@ -10553,8 +13402,11 @@
       <c r="C384">
         <v>114</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>25</v>
       </c>
@@ -10564,8 +13416,11 @@
       <c r="C385">
         <v>132</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>23</v>
       </c>
@@ -10575,8 +13430,11 @@
       <c r="C386">
         <v>113</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>14</v>
       </c>
@@ -10586,8 +13444,11 @@
       <c r="C387">
         <v>94</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>22</v>
       </c>
@@ -10597,8 +13458,11 @@
       <c r="C388">
         <v>61</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>26</v>
       </c>
@@ -10608,8 +13472,11 @@
       <c r="C389">
         <v>196</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>61</v>
       </c>
@@ -10619,8 +13486,11 @@
       <c r="C390">
         <v>103</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>70</v>
       </c>
@@ -10630,8 +13500,11 @@
       <c r="C391">
         <v>11</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>175</v>
       </c>
@@ -10641,8 +13514,11 @@
       <c r="C392">
         <v>17</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>155</v>
       </c>
@@ -10652,8 +13528,11 @@
       <c r="C393">
         <v>18</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>206</v>
       </c>
@@ -10663,8 +13542,11 @@
       <c r="C394">
         <v>103</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>235</v>
       </c>
@@ -10674,8 +13556,11 @@
       <c r="C395">
         <v>49</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>95</v>
       </c>
@@ -10685,8 +13570,11 @@
       <c r="C396">
         <v>174</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>29</v>
       </c>
@@ -10696,8 +13584,11 @@
       <c r="C397">
         <v>46</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>130</v>
       </c>
@@ -10707,8 +13598,11 @@
       <c r="C398">
         <v>27</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>125</v>
       </c>
@@ -10718,8 +13612,11 @@
       <c r="C399">
         <v>235</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>94</v>
       </c>
@@ -10729,8 +13626,11 @@
       <c r="C400">
         <v>240</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>34</v>
       </c>
@@ -10740,8 +13640,11 @@
       <c r="C401">
         <v>166</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>192</v>
       </c>
@@ -10751,8 +13654,11 @@
       <c r="C402">
         <v>83</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>141</v>
       </c>
@@ -10762,8 +13668,11 @@
       <c r="C403">
         <v>129</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>207</v>
       </c>
@@ -10773,8 +13682,11 @@
       <c r="C404">
         <v>411</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>118</v>
       </c>
@@ -10784,8 +13696,11 @@
       <c r="C405">
         <v>190</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>35</v>
       </c>
@@ -10795,8 +13710,11 @@
       <c r="C406">
         <v>135</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>177</v>
       </c>
@@ -10806,8 +13724,11 @@
       <c r="C407">
         <v>193</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>153</v>
       </c>
@@ -10817,8 +13738,11 @@
       <c r="C408">
         <v>115</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>160</v>
       </c>
@@ -10828,8 +13752,11 @@
       <c r="C409">
         <v>60</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>109</v>
       </c>
@@ -10839,8 +13766,11 @@
       <c r="C410">
         <v>131</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>166</v>
       </c>
@@ -10850,8 +13780,11 @@
       <c r="C411">
         <v>42</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>66</v>
       </c>
@@ -10861,8 +13794,11 @@
       <c r="C412">
         <v>95</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>257</v>
       </c>
@@ -10872,8 +13808,11 @@
       <c r="C413">
         <v>93</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>220</v>
       </c>
@@ -10883,8 +13822,11 @@
       <c r="C414">
         <v>143</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>166</v>
       </c>
@@ -10894,8 +13836,11 @@
       <c r="C415">
         <v>130</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>40</v>
       </c>
@@ -10905,8 +13850,11 @@
       <c r="C416">
         <v>188</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>26</v>
       </c>
@@ -10916,8 +13864,11 @@
       <c r="C417">
         <v>59</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>86</v>
       </c>
@@ -10927,8 +13878,11 @@
       <c r="C418">
         <v>109</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>186</v>
       </c>
@@ -10938,8 +13892,11 @@
       <c r="C419">
         <v>18</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>45</v>
       </c>
@@ -10949,8 +13906,11 @@
       <c r="C420">
         <v>185</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>33</v>
       </c>
@@ -10960,8 +13920,11 @@
       <c r="C421">
         <v>130</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>153</v>
       </c>
@@ -10971,8 +13934,11 @@
       <c r="C422">
         <v>157</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>115</v>
       </c>
@@ -10982,8 +13948,11 @@
       <c r="C423">
         <v>204</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>89</v>
       </c>
@@ -10993,8 +13962,11 @@
       <c r="C424">
         <v>168</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>19</v>
       </c>
@@ -11004,8 +13976,11 @@
       <c r="C425">
         <v>170</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>156</v>
       </c>
@@ -11015,8 +13990,11 @@
       <c r="C426">
         <v>92</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>172</v>
       </c>
@@ -11026,8 +14004,11 @@
       <c r="C427">
         <v>237</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>32</v>
       </c>
@@ -11037,8 +14018,11 @@
       <c r="C428">
         <v>41</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>174</v>
       </c>
@@ -11048,8 +14032,11 @@
       <c r="C429">
         <v>328</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>116</v>
       </c>
@@ -11059,8 +14046,11 @@
       <c r="C430">
         <v>207</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>69</v>
       </c>
@@ -11070,8 +14060,11 @@
       <c r="C431">
         <v>74</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>85</v>
       </c>
@@ -11081,8 +14074,11 @@
       <c r="C432">
         <v>164</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>13</v>
       </c>
@@ -11092,8 +14088,11 @@
       <c r="C433">
         <v>161</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>33</v>
       </c>
@@ -11103,8 +14102,11 @@
       <c r="C434">
         <v>212</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>77</v>
       </c>
@@ -11114,8 +14116,11 @@
       <c r="C435">
         <v>134</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>136</v>
       </c>
@@ -11125,8 +14130,11 @@
       <c r="C436">
         <v>210</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>76</v>
       </c>
@@ -11136,8 +14144,11 @@
       <c r="C437">
         <v>127</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>43</v>
       </c>
@@ -11147,8 +14158,11 @@
       <c r="C438">
         <v>89</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>152</v>
       </c>
@@ -11158,8 +14172,11 @@
       <c r="C439">
         <v>122</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>117</v>
       </c>
@@ -11169,8 +14186,11 @@
       <c r="C440">
         <v>112</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>69</v>
       </c>
@@ -11180,8 +14200,11 @@
       <c r="C441">
         <v>227</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>171</v>
       </c>
@@ -11191,8 +14214,11 @@
       <c r="C442">
         <v>131</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>103</v>
       </c>
@@ -11202,8 +14228,11 @@
       <c r="C443">
         <v>254</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>222</v>
       </c>
@@ -11213,8 +14242,11 @@
       <c r="C444">
         <v>122</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>52</v>
       </c>
@@ -11224,8 +14256,11 @@
       <c r="C445">
         <v>123</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>18</v>
       </c>
@@ -11235,8 +14270,11 @@
       <c r="C446">
         <v>112</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>114</v>
       </c>
@@ -11246,8 +14284,11 @@
       <c r="C447">
         <v>170</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>173</v>
       </c>
@@ -11257,8 +14298,11 @@
       <c r="C448">
         <v>73</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>88</v>
       </c>
@@ -11268,8 +14312,11 @@
       <c r="C449">
         <v>35</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>158</v>
       </c>
@@ -11279,8 +14326,11 @@
       <c r="C450">
         <v>84</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>170</v>
       </c>
@@ -11290,8 +14340,11 @@
       <c r="C451">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>79</v>
       </c>
@@ -11301,8 +14354,11 @@
       <c r="C452">
         <v>54</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>181</v>
       </c>
@@ -11312,8 +14368,11 @@
       <c r="C453">
         <v>15</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>10</v>
       </c>
@@ -11323,8 +14382,11 @@
       <c r="C454">
         <v>404</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>184</v>
       </c>
@@ -11334,8 +14396,11 @@
       <c r="C455">
         <v>100</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>219</v>
       </c>
@@ -11345,8 +14410,11 @@
       <c r="C456">
         <v>86</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>158</v>
       </c>
@@ -11356,8 +14424,11 @@
       <c r="C457">
         <v>199</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>102</v>
       </c>
@@ -11367,8 +14438,11 @@
       <c r="C458">
         <v>410</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>126</v>
       </c>
@@ -11378,8 +14452,11 @@
       <c r="C459">
         <v>245</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>154</v>
       </c>
@@ -11389,8 +14466,11 @@
       <c r="C460">
         <v>93</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>162</v>
       </c>
@@ -11400,8 +14480,11 @@
       <c r="C461">
         <v>117</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>133</v>
       </c>
@@ -11411,8 +14494,11 @@
       <c r="C462">
         <v>336</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>227</v>
       </c>
@@ -11422,8 +14508,11 @@
       <c r="C463">
         <v>181</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>80</v>
       </c>
@@ -11433,8 +14522,11 @@
       <c r="C464">
         <v>40</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D464">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>44</v>
       </c>
@@ -11444,8 +14536,11 @@
       <c r="C465">
         <v>105</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D465">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>181</v>
       </c>
@@ -11455,8 +14550,11 @@
       <c r="C466">
         <v>165</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D466">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>218</v>
       </c>
@@ -11466,8 +14564,11 @@
       <c r="C467">
         <v>104</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D467">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>86</v>
       </c>
@@ -11477,8 +14578,11 @@
       <c r="C468">
         <v>169</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D468">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>127</v>
       </c>
@@ -11488,8 +14592,11 @@
       <c r="C469">
         <v>173</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D469">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>178</v>
       </c>
@@ -11499,8 +14606,11 @@
       <c r="C470">
         <v>57</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D470">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>18</v>
       </c>
@@ -11510,8 +14620,11 @@
       <c r="C471">
         <v>118</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D471">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>224</v>
       </c>
@@ -11521,8 +14634,11 @@
       <c r="C472">
         <v>72</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D472">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>156</v>
       </c>
@@ -11532,8 +14648,11 @@
       <c r="C473">
         <v>322</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D473">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>93</v>
       </c>
@@ -11543,8 +14662,11 @@
       <c r="C474">
         <v>111</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D474">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>56</v>
       </c>
@@ -11554,8 +14676,11 @@
       <c r="C475">
         <v>174</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D475">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>14</v>
       </c>
@@ -11565,8 +14690,11 @@
       <c r="C476">
         <v>146</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D476">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>286</v>
       </c>
@@ -11576,8 +14704,11 @@
       <c r="C477">
         <v>126</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D477">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>98</v>
       </c>
@@ -11587,8 +14718,11 @@
       <c r="C478">
         <v>130</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D478">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>177</v>
       </c>
@@ -11598,8 +14732,11 @@
       <c r="C479">
         <v>74</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D479">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>42</v>
       </c>
@@ -11609,8 +14746,11 @@
       <c r="C480">
         <v>153</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D480">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>144</v>
       </c>
@@ -11620,8 +14760,11 @@
       <c r="C481">
         <v>159</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D481">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>104</v>
       </c>
@@ -11631,8 +14774,11 @@
       <c r="C482">
         <v>330</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D482">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>118</v>
       </c>
@@ -11642,8 +14788,11 @@
       <c r="C483">
         <v>81</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D483">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>194</v>
       </c>
@@ -11653,8 +14802,11 @@
       <c r="C484">
         <v>276</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D484">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>125</v>
       </c>
@@ -11664,8 +14816,11 @@
       <c r="C485">
         <v>73</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D485">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>174</v>
       </c>
@@ -11675,8 +14830,11 @@
       <c r="C486">
         <v>133</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D486">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>95</v>
       </c>
@@ -11686,8 +14844,11 @@
       <c r="C487">
         <v>133</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D487">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>173</v>
       </c>
@@ -11697,8 +14858,11 @@
       <c r="C488">
         <v>109</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D488">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>35</v>
       </c>
@@ -11708,8 +14872,11 @@
       <c r="C489">
         <v>141</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D489">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>64</v>
       </c>
@@ -11719,8 +14886,11 @@
       <c r="C490">
         <v>139</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D490">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>53</v>
       </c>
@@ -11730,8 +14900,11 @@
       <c r="C491">
         <v>169</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D491">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>78</v>
       </c>
@@ -11741,8 +14914,11 @@
       <c r="C492">
         <v>101</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D492">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>62</v>
       </c>
@@ -11752,8 +14928,11 @@
       <c r="C493">
         <v>110</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D493">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>78</v>
       </c>
@@ -11763,8 +14942,11 @@
       <c r="C494">
         <v>275</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D494">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>168</v>
       </c>
@@ -11774,8 +14956,11 @@
       <c r="C495">
         <v>74</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D495">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>68</v>
       </c>
@@ -11785,8 +14970,11 @@
       <c r="C496">
         <v>258</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D496">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>212</v>
       </c>
@@ -11796,8 +14984,11 @@
       <c r="C497">
         <v>37</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D497">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>227</v>
       </c>
@@ -11807,8 +14998,11 @@
       <c r="C498">
         <v>96</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D498">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>160</v>
       </c>
@@ -11818,8 +15012,11 @@
       <c r="C499">
         <v>205</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D499">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>140</v>
       </c>
@@ -11829,8 +15026,11 @@
       <c r="C500">
         <v>29</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D500">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>22</v>
       </c>
@@ -11840,8 +15040,11 @@
       <c r="C501">
         <v>191</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D501">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>132</v>
       </c>
@@ -11851,8 +15054,11 @@
       <c r="C502">
         <v>146</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D502">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>90</v>
       </c>
@@ -11862,8 +15068,11 @@
       <c r="C503">
         <v>133</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D503">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>295</v>
       </c>
@@ -11873,8 +15082,11 @@
       <c r="C504">
         <v>107</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D504">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>150</v>
       </c>
@@ -11884,8 +15096,11 @@
       <c r="C505">
         <v>56</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D505">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>150</v>
       </c>
@@ -11895,8 +15110,11 @@
       <c r="C506">
         <v>114</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D506">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>276</v>
       </c>
@@ -11906,8 +15124,11 @@
       <c r="C507">
         <v>176</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D507">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>140</v>
       </c>
@@ -11917,8 +15138,11 @@
       <c r="C508">
         <v>174</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D508">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>248</v>
       </c>
@@ -11928,8 +15152,11 @@
       <c r="C509">
         <v>117</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D509">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>212</v>
       </c>
@@ -11939,8 +15166,11 @@
       <c r="C510">
         <v>17</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D510">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>188</v>
       </c>
@@ -11950,8 +15180,11 @@
       <c r="C511">
         <v>88</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D511">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>264</v>
       </c>
@@ -11961,8 +15194,11 @@
       <c r="C512">
         <v>115</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D512">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>123</v>
       </c>
@@ -11972,8 +15208,11 @@
       <c r="C513">
         <v>93</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D513">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>111</v>
       </c>
@@ -11983,8 +15222,11 @@
       <c r="C514">
         <v>111</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D514">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>56</v>
       </c>
@@ -11994,8 +15236,11 @@
       <c r="C515">
         <v>177</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D515">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>127</v>
       </c>
@@ -12005,8 +15250,11 @@
       <c r="C516">
         <v>163</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D516">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>104</v>
       </c>
@@ -12016,8 +15264,11 @@
       <c r="C517">
         <v>109</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D517">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>104</v>
       </c>
@@ -12027,8 +15278,11 @@
       <c r="C518">
         <v>64</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D518">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>353</v>
       </c>
@@ -12038,8 +15292,11 @@
       <c r="C519">
         <v>91</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D519">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>155</v>
       </c>
@@ -12049,8 +15306,11 @@
       <c r="C520">
         <v>120</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D520">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>180</v>
       </c>
@@ -12060,8 +15320,11 @@
       <c r="C521">
         <v>15</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D521">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>112</v>
       </c>
@@ -12071,8 +15334,11 @@
       <c r="C522">
         <v>33</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D522">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>154</v>
       </c>
@@ -12082,8 +15348,11 @@
       <c r="C523">
         <v>131</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D523">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>133</v>
       </c>
@@ -12093,8 +15362,11 @@
       <c r="C524">
         <v>112</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D524">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>152</v>
       </c>
@@ -12104,8 +15376,11 @@
       <c r="C525">
         <v>113</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D525">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>196</v>
       </c>
@@ -12115,8 +15390,11 @@
       <c r="C526">
         <v>93</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D526">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>244</v>
       </c>
@@ -12126,8 +15404,11 @@
       <c r="C527">
         <v>93</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D527">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>95</v>
       </c>
@@ -12137,8 +15418,11 @@
       <c r="C528">
         <v>44</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D528">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>172</v>
       </c>
@@ -12148,8 +15432,11 @@
       <c r="C529">
         <v>86</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D529">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>261</v>
       </c>
@@ -12159,8 +15446,11 @@
       <c r="C530">
         <v>127</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D530">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>30</v>
       </c>
@@ -12170,8 +15460,11 @@
       <c r="C531">
         <v>38</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D531">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>104</v>
       </c>
@@ -12181,8 +15474,11 @@
       <c r="C532">
         <v>115</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D532">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>213</v>
       </c>
@@ -12192,8 +15488,11 @@
       <c r="C533">
         <v>254</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D533">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>166</v>
       </c>
@@ -12203,8 +15502,11 @@
       <c r="C534">
         <v>151</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D534">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>136</v>
       </c>
@@ -12214,8 +15516,11 @@
       <c r="C535">
         <v>71</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D535">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>31</v>
       </c>
@@ -12225,8 +15530,11 @@
       <c r="C536">
         <v>179</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D536">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>111</v>
       </c>
@@ -12236,8 +15544,11 @@
       <c r="C537">
         <v>163</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D537">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>30</v>
       </c>
@@ -12247,8 +15558,11 @@
       <c r="C538">
         <v>121</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D538">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>168</v>
       </c>
@@ -12258,8 +15572,11 @@
       <c r="C539">
         <v>186</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D539">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>168</v>
       </c>
@@ -12269,8 +15586,11 @@
       <c r="C540">
         <v>117</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D540">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>172</v>
       </c>
@@ -12280,8 +15600,11 @@
       <c r="C541">
         <v>102</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D541">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>274</v>
       </c>
@@ -12291,8 +15614,11 @@
       <c r="C542">
         <v>118</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D542">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>155</v>
       </c>
@@ -12302,8 +15628,11 @@
       <c r="C543">
         <v>109</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D543">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>82</v>
       </c>
@@ -12313,8 +15642,11 @@
       <c r="C544">
         <v>84</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D544">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>195</v>
       </c>
@@ -12324,8 +15656,11 @@
       <c r="C545">
         <v>133</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D545">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>203</v>
       </c>
@@ -12335,8 +15670,11 @@
       <c r="C546">
         <v>144</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D546">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>147</v>
       </c>
@@ -12346,8 +15684,11 @@
       <c r="C547">
         <v>64</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D547">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>216</v>
       </c>
@@ -12357,8 +15698,11 @@
       <c r="C548">
         <v>163</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D548">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>67</v>
       </c>
@@ -12368,8 +15712,11 @@
       <c r="C549">
         <v>120</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D549">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>66</v>
       </c>
@@ -12379,8 +15726,11 @@
       <c r="C550">
         <v>280</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D550">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>138</v>
       </c>
@@ -12389,6 +15739,9 @@
       </c>
       <c r="C551">
         <v>243</v>
+      </c>
+      <c r="D551">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
